--- a/Diagrama de Gantt.xlsx
+++ b/Diagrama de Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documentación Estadías\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Estadias Wurth\Documentos-Estadias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20358027-2C40-4A67-9ABA-891DB2959BBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C83C524-390D-4D17-9D6C-E6D51AACE0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00CDD69E-8CE4-4C5E-8D9F-5551F46FE709}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00CDD69E-8CE4-4C5E-8D9F-5551F46FE709}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Actividad</t>
   </si>
@@ -48,9 +57,6 @@
     <t>Pantallas de Inventario</t>
   </si>
   <si>
-    <t>Pantalla de Asiganciones</t>
-  </si>
-  <si>
     <t>Pantalla de Catálogos</t>
   </si>
   <si>
@@ -62,12 +68,30 @@
   <si>
     <t>Diagrama de Módulos</t>
   </si>
+  <si>
+    <t>Pantalla de Asignaciones</t>
+  </si>
+  <si>
+    <t>Módulo de Catálogos de Inventario</t>
+  </si>
+  <si>
+    <t>Módulo de Procesos de Asignaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Módulo de Informes de Asignaciones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Módulo de Informes de Plan de Mantenimiento </t>
+  </si>
+  <si>
+    <t>Aplicación Web</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +104,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -110,6 +139,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -141,36 +174,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -178,6 +181,280 @@
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$D$5:$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>Representación Conceptual</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diagrama de Casos de Uso</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diagrama de Módulos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Diagrama de Base de Datos</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Pantallas de Inventario</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pantalla de Asignaciones</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Pantalla de Catálogos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pantalla de Mantenimiento</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Módulo de Catálogos de Inventario</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Módulo de Procesos de Asignaciones</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Módulo de Informes de Asignaciones </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Módulo de Informes de Plan de Mantenimiento </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Módulo de Catálogos de Inventario</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Módulo de Procesos de Asignaciones</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Módulo de Informes de Asignaciones </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Módulo de Informes de Plan de Mantenimiento </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Aplicación Web</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$5:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>45056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45063</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45069</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45071</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45079</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45084</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45093</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45097</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45117</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45131</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45139</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45149</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45152</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45154</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45155</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-35CA-4390-B068-B1A933227AFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$D$5:$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>Representación Conceptual</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diagrama de Casos de Uso</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diagrama de Módulos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Diagrama de Base de Datos</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Pantallas de Inventario</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pantalla de Asignaciones</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Pantalla de Catálogos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pantalla de Mantenimiento</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Módulo de Catálogos de Inventario</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Módulo de Procesos de Asignaciones</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Módulo de Informes de Asignaciones </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Módulo de Informes de Plan de Mantenimiento </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Módulo de Catálogos de Inventario</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Módulo de Procesos de Asignaciones</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Módulo de Informes de Asignaciones </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Módulo de Informes de Plan de Mantenimiento </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Aplicación Web</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$5:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-35CA-4390-B068-B1A933227AFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -193,10 +470,11 @@
       <c:catAx>
         <c:axId val="514391272"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -246,7 +524,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -261,6 +539,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -897,15 +1176,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>208046</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>132348</xdr:rowOff>
+      <xdr:colOff>461492</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>147671</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>208046</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>18048</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>339587</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>170525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1230,15 +1509,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695CB332-9722-4F5A-986F-EF505DDC35B4}">
-  <dimension ref="D4:G12"/>
+  <dimension ref="D4:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:7" x14ac:dyDescent="0.25">
@@ -1256,52 +1536,52 @@
       </c>
     </row>
     <row r="5" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D5" s="2" t="s">
-        <v>10</v>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E5" s="1">
         <v>45056</v>
       </c>
       <c r="F5">
-        <f>G5-E5</f>
-        <v>6</v>
+        <f>NETWORKDAYS(E5,G5)</f>
+        <v>5</v>
       </c>
       <c r="G5" s="1">
         <v>45062</v>
       </c>
     </row>
     <row r="6" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="1">
         <v>45063</v>
       </c>
       <c r="F6">
-        <f>G6-E6</f>
-        <v>5</v>
+        <f t="shared" ref="F6:F21" si="0">NETWORKDAYS(E6,G6)</f>
+        <v>4</v>
       </c>
       <c r="G6" s="1">
         <v>45068</v>
       </c>
     </row>
     <row r="7" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D7" s="2" t="s">
-        <v>11</v>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E7" s="1">
         <v>45069</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F12" si="0">G7-E7</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="G7" s="1">
         <v>45070</v>
       </c>
     </row>
     <row r="8" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="1">
@@ -1309,14 +1589,14 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1">
         <v>45078</v>
       </c>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="1">
@@ -1324,55 +1604,190 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="1">
         <v>45083</v>
       </c>
     </row>
     <row r="10" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="2" t="s">
-        <v>7</v>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E10" s="1">
         <v>45084</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1">
         <v>45085</v>
       </c>
     </row>
     <row r="11" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="2" t="s">
-        <v>8</v>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E11" s="1">
         <v>45086</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1">
         <v>45089</v>
       </c>
     </row>
     <row r="12" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="2" t="s">
-        <v>9</v>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E12" s="1">
         <v>45093</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1">
         <v>45096</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4">
+        <v>45097</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G13" s="4">
+        <v>45114</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="4">
+        <v>45117</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G14" s="4">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="4">
+        <v>45131</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G15" s="4">
+        <v>45138</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4">
+        <v>45139</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G16" s="4">
+        <v>45148</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4">
+        <v>45149</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G17" s="4">
+        <v>45152</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="4">
+        <v>45152</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>45153</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="4">
+        <v>45154</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G19" s="4">
+        <v>45155</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="4">
+        <v>45155</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>45155</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="4">
+        <v>45156</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>45156</v>
       </c>
     </row>
   </sheetData>

--- a/Diagrama de Gantt.xlsx
+++ b/Diagrama de Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Estadias Wurth\Documentos-Estadias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C83C524-390D-4D17-9D6C-E6D51AACE0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F27993-D26F-489C-A64F-A231474D8E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00CDD69E-8CE4-4C5E-8D9F-5551F46FE709}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Actividad</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>Aplicación Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicio </t>
+  </si>
+  <si>
+    <t>fin</t>
   </si>
 </sst>
 </file>
@@ -131,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -143,6 +152,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -179,7 +192,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -313,7 +326,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-35CA-4390-B068-B1A933227AFA}"/>
+              <c16:uniqueId val="{00000002-227D-4B56-8BB4-D8CBA88DDDB4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -451,7 +464,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-35CA-4390-B068-B1A933227AFA}"/>
+              <c16:uniqueId val="{00000003-227D-4B56-8BB4-D8CBA88DDDB4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -463,12 +476,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="514391272"/>
-        <c:axId val="514392256"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="134284207"/>
+        <c:axId val="134288783"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="514391272"/>
+        <c:axId val="134284207"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -511,7 +525,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514392256"/>
+        <c:crossAx val="134288783"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -519,9 +533,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514392256"/>
+        <c:axId val="134288783"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="45156"/>
+          <c:min val="45056"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -570,7 +586,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514391272"/>
+        <c:crossAx val="134284207"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -667,7 +683,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1175,23 +1191,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>461492</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>147671</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>99391</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>36442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>339587</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>170525</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>712304</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{458FB4F4-5DBF-4E2B-8398-6E01531766AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{633A77BB-6C31-43F5-B75B-9BBD24426B3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,19 +1525,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695CB332-9722-4F5A-986F-EF505DDC35B4}">
-  <dimension ref="D4:G21"/>
+  <dimension ref="D4:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +1554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1550,7 +1569,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1565,7 +1584,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1579,8 +1598,14 @@
       <c r="G7" s="1">
         <v>45070</v>
       </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="5">
+        <v>45056</v>
+      </c>
     </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1594,8 +1619,14 @@
       <c r="G8" s="1">
         <v>45078</v>
       </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="6">
+        <v>45156</v>
+      </c>
     </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1610,7 +1641,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1625,7 +1656,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1640,7 +1671,7 @@
         <v>45089</v>
       </c>
     </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1655,7 +1686,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
         <v>12</v>
       </c>
@@ -1670,7 +1701,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1685,7 +1716,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1700,7 +1731,7 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1715,7 +1746,7 @@
         <v>45148</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D17" s="3" t="s">
         <v>12</v>
       </c>
@@ -1730,7 +1761,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
@@ -1745,7 +1776,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1760,7 +1791,7 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D20" s="2" t="s">
         <v>15</v>
       </c>
@@ -1775,7 +1806,7 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1790,9 +1821,14 @@
         <v>45156</v>
       </c>
     </row>
+    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="La fecha debe ser de Lunes a Viernes" prompt="Fecha Inicio Plan - Debe ser un día de Lunes a Viernes" sqref="E5:E12 G5:G12" xr:uid="{0214DC37-6C7F-4AEC-9F94-2674F2E2576C}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="La fecha debe ser de Lunes a Viernes" prompt="Fecha Inicio Plan - Debe ser un día de Lunes a Viernes" sqref="E5:E12 G5:G12 J7" xr:uid="{0214DC37-6C7F-4AEC-9F94-2674F2E2576C}">
       <formula1>AND(WEEKDAY(E5,11)&lt;&gt;6,WEEKDAY(E5,11)&lt;&gt;7)</formula1>
     </dataValidation>
   </dataValidations>
